--- a/data/case1/20/P1_1.xlsx
+++ b/data/case1/20/P1_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.31062614653640708</v>
+        <v>0.38601601592701229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999995221260463</v>
+        <v>-0.0099999992126775794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999995173339897</v>
+        <v>-0.085300523092787017</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999890218049</v>
+        <v>-0.011999999795982319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999995278916529</v>
+        <v>-0.0059999992045165484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999995215491708</v>
+        <v>-0.0059999991844712497</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999441386862</v>
+        <v>-0.019999999045486661</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0199999994393254</v>
+        <v>-0.019999999047095152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999995173178888</v>
+        <v>-0.005999999192123795</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999995167103748</v>
+        <v>0.057755277470690203</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999995252013036</v>
+        <v>0.031076518955948984</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999995168511511</v>
+        <v>-0.0059999991965042909</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.063497613401381159</v>
+        <v>-0.0059999991846195755</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999481433932</v>
+        <v>-0.011999999121620419</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.022172963109008847</v>
+        <v>-0.0059999991786670037</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999995116744032</v>
+        <v>-0.0059999991762760274</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.005999999509936238</v>
+        <v>-0.0059999991730972368</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999994925920035</v>
+        <v>-0.0089999991426070736</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999995267087129</v>
+        <v>-0.0089999992229365944</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999995129836918</v>
+        <v>-0.0089999992158134035</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999995100820129</v>
+        <v>-0.0089999992147538066</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.066023848819872111</v>
+        <v>-0.0089999992140503693</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999995132563626</v>
+        <v>-0.0089999991854199379</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999319071613</v>
+        <v>-0.041999998844443276</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999315591729</v>
+        <v>-0.041999998837981778</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999995214745638</v>
+        <v>-0.059479742224826992</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999995211637014</v>
+        <v>-0.005999999178105675</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999995201245326</v>
+        <v>-0.0059999991671721986</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.01199999948591568</v>
+        <v>-0.011999999100988035</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999440989402</v>
+        <v>-0.019999999018347481</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.061982199757686374</v>
+        <v>-0.014999999065265612</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.027508542690135585</v>
+        <v>0.0043317948749441726</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999995220456626</v>
+        <v>-0.0059999991544712472</v>
       </c>
     </row>
   </sheetData>
